--- a/04_Modelling/02_pelagic/02_eDNA/BRT_Output_edna/contrib_mod_best_fixed_reduced_richness_gaussian.xlsx
+++ b/04_Modelling/02_pelagic/02_eDNA/BRT_Output_edna/contrib_mod_best_fixed_reduced_richness_gaussian.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>53.65587198890312</v>
+        <v>30.38596319515315</v>
       </c>
     </row>
     <row r="3">
@@ -386,37 +386,57 @@
         </is>
       </c>
       <c r="B3">
-        <v>13.95116321188273</v>
+        <v>14.78565916376244</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>seafloorTemp</t>
+          <t>BottomDepth</t>
         </is>
       </c>
       <c r="B4">
-        <v>12.49283991579065</v>
+        <v>14.12064060287376</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BottomDepth</t>
+          <t>seafloorTemp</t>
         </is>
       </c>
       <c r="B5">
-        <v>11.87716281422071</v>
+        <v>13.85508230772668</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Sampling_Depth</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>13.35697715913045</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>NorthwardVelocity</t>
         </is>
       </c>
-      <c r="B6">
-        <v>8.022962069202787</v>
+      <c r="B7">
+        <v>8.064868022255055</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SummitRugosity</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>5.430809549098467</v>
       </c>
     </row>
   </sheetData>
